--- a/documentation/quality/ALS - Bug Report.xlsx
+++ b/documentation/quality/ALS - Bug Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer2\Documents\Not Mine - KIMMY\QUALITY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SOFTDEV-IT111\apc-softdev-it111-05\documentation\quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,36 +100,38 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -230,53 +232,53 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,185 +561,185 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="36" style="8" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="18.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="36" style="4" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="7">
         <v>42016</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>42106</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -746,119 +748,123 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="13" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>1</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
         <v>2</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
         <v>3</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
         <v>4</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
         <v>5</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>6</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
         <v>7</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
         <v>8</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
         <v>9</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
         <v>10</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -868,11 +874,8 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/quality/ALS - Bug Report.xlsx
+++ b/documentation/quality/ALS - Bug Report.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Proof of Testing" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Status">'Bug Report'!$J$2:$J$5</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Test No.</t>
   </si>
@@ -32,9 +36,6 @@
     <t>Test Description</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t>Project Name:</t>
   </si>
   <si>
@@ -84,6 +85,172 @@
   </si>
   <si>
     <t>BUG REPORT</t>
+  </si>
+  <si>
+    <t>Developer's Resolution</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>Tester and Proof of Test</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>STATUS LEGEND</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>TESTING INSTRUCTIONS:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. Enter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and explain results in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Expected and Actual Behavior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Identify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>which Test Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> bug / issue was found
+3. Input name of Tester and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of proof of test (script, printscreen)
+4. Leave Developer's Resolution </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+5. Change Status to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Active'</t>
+    </r>
+  </si>
+  <si>
+    <t>PROOF OF TEST</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Please place your proof of tests (i.e. scripts/file links, screenshots and the like, on the space provided) </t>
   </si>
 </sst>
 </file>
@@ -116,12 +283,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -133,8 +294,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +333,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -226,45 +430,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF002060"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,19 +603,461 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -559,323 +1332,1817 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="36" style="4" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="J1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18">
+        <v>42016</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="18">
+        <v>42106</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:28" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="H14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
+        <v>1</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
+        <v>2</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="AA16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB16" s="22"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="30">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="AA17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="AA18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" s="30">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" s="30">
         <v>7</v>
       </c>
-      <c r="B4" s="7">
-        <v>42016</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" s="30">
         <v>8</v>
       </c>
-      <c r="B5" s="7">
-        <v>42106</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" s="30">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" s="30">
         <v>10</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="27"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26" s="30">
         <v>12</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27" s="30">
         <v>13</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" s="30">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="30">
         <v>15</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <v>2</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>3</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>4</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <v>5</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <v>6</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
-        <v>7</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
-        <v>8</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
-        <v>9</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
-        <v>10</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="31" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+  <mergeCells count="17">
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J11:K25"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Fixed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"Active"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H29">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Active"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Fixed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error in data entry." error="Please choose among the items in the dropdown list." sqref="H15:H29">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:U62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="0.7109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="39"/>
+    </row>
+    <row r="3" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+    </row>
+    <row r="23" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+    </row>
+    <row r="33" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+    </row>
+    <row r="34" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+    </row>
+    <row r="35" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+    </row>
+    <row r="36" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+    </row>
+    <row r="37" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+    </row>
+    <row r="38" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+    </row>
+    <row r="39" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+    </row>
+    <row r="40" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+    </row>
+    <row r="41" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+    </row>
+    <row r="42" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+    </row>
+    <row r="43" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+    </row>
+    <row r="44" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+    </row>
+    <row r="45" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+    </row>
+    <row r="46" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+    </row>
+    <row r="47" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+    </row>
+    <row r="48" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+    </row>
+    <row r="49" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+    </row>
+    <row r="50" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+    </row>
+    <row r="51" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+    </row>
+    <row r="52" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+    </row>
+    <row r="53" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+    </row>
+    <row r="54" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+    </row>
+    <row r="55" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+    </row>
+    <row r="56" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+    </row>
+    <row r="57" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+    </row>
+    <row r="58" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
+    </row>
+    <row r="59" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+    </row>
+    <row r="60" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+    </row>
+    <row r="61" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+    </row>
+    <row r="62" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="B4:D23"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>